--- a/personal project/analisa dca/analisa dca.xlsx
+++ b/personal project/analisa dca/analisa dca.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA22366-3DAD-4C04-AB30-6504085D3D25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B8B974-CC73-45D9-A67D-9B1CC01D3E19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Contoh" sheetId="1" r:id="rId1"/>
+    <sheet name="Ethereum Bearish" sheetId="2" r:id="rId2"/>
+    <sheet name="EOS Bullish" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>Beli di Harga</t>
   </si>
@@ -161,7 +163,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>Contoh!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -196,7 +198,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Contoh!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="9"/>
@@ -242,7 +244,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Contoh!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -277,7 +279,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Contoh!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="9"/>
@@ -520,7 +522,1059 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ethereum Bearish'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beli di Harga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ethereum Bearish'!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1681</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1683</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1662</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1652</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1656</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1653</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1703</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1647</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1628</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1635</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FB7-43EB-BB2F-27AC495CDE79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ethereum Bearish'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rata-rata</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ethereum Bearish'!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1854.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1851.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1850.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1848.2857142857142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1845.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1841.2222222222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1825.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1810.2727272727273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1798.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1789.6153846153845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1780.7142857142858</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1770.9333333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1765</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1758.9411764705883</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1747.3684210526317</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1742.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1738.5238095238096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1738.0454545454545</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1736.5217391304348</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1732.7916666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1728.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1725.1153846153845</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1721.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1718.6071428571429</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1715.344827586207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7FB7-43EB-BB2F-27AC495CDE79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="350861136"/>
+        <c:axId val="347912384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="350861136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347912384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="347912384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350861136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EOS Bullish'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beli di Harga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'EOS Bullish'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F98C-4FC8-9C4C-C9968775E724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EOS Bullish'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rata-rata</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'EOS Bullish'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77099999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75639999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74733333333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74514285714285722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74055555555555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73920000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73836363636363633</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74176923076923085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F98C-4FC8-9C4C-C9968775E724}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="347783200"/>
+        <c:axId val="262101376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="347783200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262101376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="262101376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347783200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1063,20 +2117,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1084,6 +3144,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE57504-D9D3-49EA-87DC-8C219B355D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>49529</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63BB512D-39A6-4FA2-91FF-DFBF116855FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28664B49-ED1F-4940-8B69-10B4896DACCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,7 +3538,7 @@
         <v>1000</v>
       </c>
       <c r="B2" s="2">
-        <f>A2</f>
+        <f>AVERAGE($A$2:A2)</f>
         <v>1000</v>
       </c>
       <c r="C2" s="3">
@@ -1409,7 +3551,7 @@
         <v>900</v>
       </c>
       <c r="B3" s="2">
-        <f>AVERAGE(A2:A3)</f>
+        <f>AVERAGE($A$2:A3)</f>
         <v>950</v>
       </c>
       <c r="C3" s="3">
@@ -1422,7 +3564,7 @@
         <v>800</v>
       </c>
       <c r="B4" s="2">
-        <f>AVERAGE(A2:A4)</f>
+        <f>AVERAGE($A$2:A4)</f>
         <v>900</v>
       </c>
       <c r="C4" s="3">
@@ -1435,7 +3577,7 @@
         <v>500</v>
       </c>
       <c r="B5" s="2">
-        <f>AVERAGE(A2:A5)</f>
+        <f>AVERAGE($A$2:A5)</f>
         <v>800</v>
       </c>
       <c r="C5" s="3">
@@ -1448,7 +3590,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="2">
-        <f>AVERAGE(A2:A6)</f>
+        <f>AVERAGE($A$2:A6)</f>
         <v>660</v>
       </c>
       <c r="C6" s="3">
@@ -1461,7 +3603,7 @@
         <v>300</v>
       </c>
       <c r="B7" s="2">
-        <f>AVERAGE(A2:A7)</f>
+        <f>AVERAGE($A$2:A7)</f>
         <v>600</v>
       </c>
       <c r="C7" s="3">
@@ -1474,7 +3616,7 @@
         <v>200</v>
       </c>
       <c r="B8" s="2">
-        <f>AVERAGE(A2:A8)</f>
+        <f>AVERAGE($A$2:A8)</f>
         <v>542.85714285714289</v>
       </c>
       <c r="C8" s="3">
@@ -1487,7 +3629,7 @@
         <v>500</v>
       </c>
       <c r="B9" s="2">
-        <f>AVERAGE(A2:A9)</f>
+        <f>AVERAGE($A$2:A9)</f>
         <v>537.5</v>
       </c>
       <c r="C9" s="3">
@@ -1500,7 +3642,7 @@
         <v>600</v>
       </c>
       <c r="B10" s="2">
-        <f>AVERAGE(A2:A10)</f>
+        <f>AVERAGE($A$2:A10)</f>
         <v>544.44444444444446</v>
       </c>
       <c r="C10" s="3">
@@ -1511,130 +3653,82 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1901,4 +3995,750 @@
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB23E4F2-6658-4416-8EEF-B63E020C3BB7}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1855</v>
+      </c>
+      <c r="B2" s="2">
+        <f>AVERAGE($A$2:A2)</f>
+        <v>1855</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C22" si="0">A2-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1854</v>
+      </c>
+      <c r="B3" s="2">
+        <f>AVERAGE($A$2:A3)</f>
+        <v>1854.5</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1850</v>
+      </c>
+      <c r="B4" s="2">
+        <f>AVERAGE($A$2:A4)</f>
+        <v>1853</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1846</v>
+      </c>
+      <c r="B5" s="2">
+        <f>AVERAGE($A$2:A5)</f>
+        <v>1851.25</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>-5.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1848</v>
+      </c>
+      <c r="B6" s="2">
+        <f>AVERAGE($A$2:A6)</f>
+        <v>1850.6</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.5999999999999091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1841</v>
+      </c>
+      <c r="B7" s="2">
+        <f>AVERAGE($A$2:A7)</f>
+        <v>1849</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1844</v>
+      </c>
+      <c r="B8" s="2">
+        <f>AVERAGE($A$2:A8)</f>
+        <v>1848.2857142857142</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.2857142857142208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1828</v>
+      </c>
+      <c r="B9" s="2">
+        <f>AVERAGE($A$2:A9)</f>
+        <v>1845.75</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>-17.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1805</v>
+      </c>
+      <c r="B10" s="2">
+        <f>AVERAGE($A$2:A10)</f>
+        <v>1841.2222222222222</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>-36.222222222222172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1681</v>
+      </c>
+      <c r="B11" s="3">
+        <f>AVERAGE($A$2:A11)</f>
+        <v>1825.2</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>-144.20000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1661</v>
+      </c>
+      <c r="B12" s="3">
+        <f>AVERAGE($A$2:A12)</f>
+        <v>1810.2727272727273</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>-149.27272727272725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1669</v>
+      </c>
+      <c r="B13" s="3">
+        <f>AVERAGE($A$2:A13)</f>
+        <v>1798.5</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>-129.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1683</v>
+      </c>
+      <c r="B14" s="3">
+        <f>AVERAGE($A$2:A14)</f>
+        <v>1789.6153846153845</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>-106.61538461538453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1665</v>
+      </c>
+      <c r="B15" s="3">
+        <f>AVERAGE($A$2:A15)</f>
+        <v>1780.7142857142858</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>-115.71428571428578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1634</v>
+      </c>
+      <c r="B16" s="3">
+        <f>AVERAGE($A$2:A16)</f>
+        <v>1770.9333333333334</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>-136.93333333333339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1676</v>
+      </c>
+      <c r="B17" s="3">
+        <f>AVERAGE($A$2:A17)</f>
+        <v>1765</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1662</v>
+      </c>
+      <c r="B18" s="3">
+        <f>AVERAGE($A$2:A18)</f>
+        <v>1758.9411764705883</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>-96.941176470588289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1652</v>
+      </c>
+      <c r="B19" s="3">
+        <f>AVERAGE($A$2:A19)</f>
+        <v>1753</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1646</v>
+      </c>
+      <c r="B20" s="3">
+        <f>AVERAGE($A$2:A20)</f>
+        <v>1747.3684210526317</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>-101.36842105263167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1656</v>
+      </c>
+      <c r="B21" s="3">
+        <f>AVERAGE($A$2:A21)</f>
+        <v>1742.8</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>-86.799999999999955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1653</v>
+      </c>
+      <c r="B22" s="3">
+        <f>AVERAGE($A$2:A22)</f>
+        <v>1738.5238095238096</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:C27" si="1">A22-B22</f>
+        <v>-85.523809523809632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1728</v>
+      </c>
+      <c r="B23" s="3">
+        <f>AVERAGE($A$2:A23)</f>
+        <v>1738.0454545454545</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="1"/>
+        <v>-10.045454545454504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1703</v>
+      </c>
+      <c r="B24" s="3">
+        <f>AVERAGE($A$2:A24)</f>
+        <v>1736.5217391304348</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="1"/>
+        <v>-33.521739130434753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1647</v>
+      </c>
+      <c r="B25" s="3">
+        <f>AVERAGE($A$2:A25)</f>
+        <v>1732.7916666666667</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="1"/>
+        <v>-85.791666666666742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1628</v>
+      </c>
+      <c r="B26" s="3">
+        <f>AVERAGE($A$2:A26)</f>
+        <v>1728.6</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="1"/>
+        <v>-100.59999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1638</v>
+      </c>
+      <c r="B27" s="3">
+        <f>AVERAGE($A$2:A27)</f>
+        <v>1725.1153846153845</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27:C37" si="2">A27-B27</f>
+        <v>-87.115384615384528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1635</v>
+      </c>
+      <c r="B28" s="3">
+        <f>AVERAGE($A$2:A28)</f>
+        <v>1721.7777777777778</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="2"/>
+        <v>-86.777777777777828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1633</v>
+      </c>
+      <c r="B29" s="3">
+        <f>AVERAGE($A$2:A29)</f>
+        <v>1718.6071428571429</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="2"/>
+        <v>-85.60714285714289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1624</v>
+      </c>
+      <c r="B30" s="3">
+        <f>AVERAGE($A$2:A30)</f>
+        <v>1715.344827586207</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="2"/>
+        <v>-91.344827586206975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7F7C25-35FE-468A-84B4-96C67B364D42}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="B2" s="2">
+        <f>AVERAGE($A$2:A2)</f>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C30" si="0">A2-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="B3" s="2">
+        <f>AVERAGE($A$2:A3)</f>
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.4999999999999529E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="B4" s="2">
+        <f>AVERAGE($A$2:A4)</f>
+        <v>0.77099999999999991</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.9999999999998916E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.745</v>
+      </c>
+      <c r="B5" s="2">
+        <f>AVERAGE($A$2:A5)</f>
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.9499999999999962E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="B6" s="2">
+        <f>AVERAGE($A$2:A6)</f>
+        <v>0.75639999999999996</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.2399999999999984E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="B7" s="2">
+        <f>AVERAGE($A$2:A7)</f>
+        <v>0.74733333333333329</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.5333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="B8" s="2">
+        <f>AVERAGE($A$2:A8)</f>
+        <v>0.74514285714285722</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.3142857142857234E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="B9" s="2">
+        <f>AVERAGE($A$2:A9)</f>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.8500000000000072E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="B10" s="2">
+        <f>AVERAGE($A$2:A10)</f>
+        <v>0.74055555555555552</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.5555555555555545E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="B11" s="3">
+        <f>AVERAGE($A$2:A11)</f>
+        <v>0.73920000000000008</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.22000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="B12" s="3">
+        <f>AVERAGE($A$2:A12)</f>
+        <v>0.73836363636363633</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>-8.3636363636363509E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="B13" s="3">
+        <f>AVERAGE($A$2:A13)</f>
+        <v>0.73666666666666669</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.866666666666672E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="B14" s="3">
+        <f>AVERAGE($A$2:A14)</f>
+        <v>0.74176923076923085</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>6.12307692307692E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/personal project/analisa dca/analisa dca.xlsx
+++ b/personal project/analisa dca/analisa dca.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B8B974-CC73-45D9-A67D-9B1CC01D3E19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90563972-1B9B-4DF8-8D5A-EB35A7D2946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contoh" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3133,10 +3142,10 @@
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>169544</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3174,10 +3183,10 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>49529</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>260351</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3202,6 +3211,128 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF85C0F-A03D-429D-8278-BD6AC18A2250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="1209674"/>
+          <a:ext cx="10610850" cy="3476625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB4A1E5-0A96-45C0-BE3B-EF5B5D89B298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="1209675"/>
+          <a:ext cx="10572750" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3215,10 +3346,10 @@
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7619</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3241,6 +3372,128 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B70548-EFC4-4DA9-9C9D-00557475344B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114799" y="1200149"/>
+          <a:ext cx="10391775" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A90659-2C55-4A97-B838-418D979366EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14525625" y="1190625"/>
+          <a:ext cx="752475" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3512,7 +3765,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3542,7 +3795,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C26" si="0">A2-B2</f>
+        <f t="shared" ref="C2:C10" si="0">A2-B2</f>
         <v>0</v>
       </c>
     </row>
@@ -4001,8 +4254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB23E4F2-6658-4416-8EEF-B63E020C3BB7}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4032,7 +4285,7 @@
         <v>1855</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C22" si="0">A2-B2</f>
+        <f t="shared" ref="C2:C21" si="0">A2-B2</f>
         <v>0</v>
       </c>
     </row>
@@ -4292,7 +4545,7 @@
         <v>1738.5238095238096</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:C27" si="1">A22-B22</f>
+        <f t="shared" ref="C22:C26" si="1">A22-B22</f>
         <v>-85.523809523809632</v>
       </c>
     </row>
@@ -4357,7 +4610,7 @@
         <v>1725.1153846153845</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:C37" si="2">A27-B27</f>
+        <f t="shared" ref="C27:C30" si="2">A27-B27</f>
         <v>-87.115384615384528</v>
       </c>
     </row>
@@ -4438,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7F7C25-35FE-468A-84B4-96C67B364D42}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4469,7 +4722,7 @@
         <v>0.78200000000000003</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C30" si="0">A2-B2</f>
+        <f t="shared" ref="C2:C14" si="0">A2-B2</f>
         <v>0</v>
       </c>
     </row>
